--- a/Supplimentary-data/Supplementary data 2.xlsx
+++ b/Supplimentary-data/Supplementary data 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliacoggon/Github/Euro-Swine-Risk/Supplimentary-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62185F6D-77DA-464D-BCD9-8D59E11D8F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB5618-BAA3-4444-981F-BB5BDC847902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="-22400" windowWidth="29960" windowHeight="16940" xr2:uid="{58B45472-9861-A54C-9903-3895F3668438}"/>
+    <workbookView xWindow="-23400" yWindow="-9540" windowWidth="23400" windowHeight="19060" xr2:uid="{58B45472-9861-A54C-9903-3895F3668438}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary data 2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Strain</t>
   </si>
@@ -185,9 +185,6 @@
     <t>1B.1.1*</t>
   </si>
   <si>
-    <t>*Human Vaccine</t>
-  </si>
-  <si>
     <t>1B.2.1**</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
     <t>H1N1</t>
   </si>
   <si>
-    <t xml:space="preserve">1C.2.2 </t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>1.B.1.2.1</t>
   </si>
   <si>
@@ -222,6 +213,24 @@
   </si>
   <si>
     <t>Ferret sera</t>
+  </si>
+  <si>
+    <t>***Swine Vaccine Seed strain</t>
+  </si>
+  <si>
+    <t>*Human Vaccine Strain</t>
+  </si>
+  <si>
+    <t>1A.3.3.2***</t>
+  </si>
+  <si>
+    <t>1B***</t>
+  </si>
+  <si>
+    <t>1C.2.2***</t>
+  </si>
+  <si>
+    <t>H1</t>
   </si>
 </sst>
 </file>
@@ -229,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -721,22 +730,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F04EEA-710D-0647-AA23-C4C4E79B7735}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,67 +1126,66 @@
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="194" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1192,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
@@ -1207,77 +1209,82 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>57</v>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1289,51 +1296,51 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="8">
+        <v>56</v>
+      </c>
+      <c r="D5">
         <v>2009</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>1.0504247547921699</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>1.09400668091272</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>0.62461687431697799</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="6">
         <v>1.35844655850483</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="6">
         <v>2.1032398430869002</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="6">
         <v>3.7834906279697198</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="6">
         <v>3.1130016544589698</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="6">
         <v>6.4231452867529697</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="6">
         <v>3.7645627923954299</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="6">
         <v>6.2587389735505798</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="6">
         <v>2.1064749934624998</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="6">
         <v>3.23536336668325</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="6">
         <v>2.0700716977509601</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="6">
         <v>0.846601191085809</v>
       </c>
     </row>
@@ -1345,51 +1352,51 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="8">
+        <v>56</v>
+      </c>
+      <c r="D6">
         <v>2015</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>3.4763085193391499</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>3.1122229603598499</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>2.8960884681678598</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="6">
         <v>3.5733039175271002</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="6">
         <v>3.5114760413630401</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="6">
         <v>6.0114206745284804</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="6">
         <v>5.6725421281043298</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="6">
         <v>7.4404099180961403</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="6">
         <v>6.3444389556345699</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="6">
         <v>7.7526942443551299</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="6">
         <v>3.8440594548095799</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="6">
         <v>5.3148905161826097</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="6">
         <v>2.714048027669</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="6">
         <v>3.3828294717511498</v>
       </c>
     </row>
@@ -1401,51 +1408,51 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="5">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2">
         <v>2016</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>2.25652576396004</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>2.4039664421107498</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>3.5007996577873701</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="6">
         <v>3.9598143503765302</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="6">
         <v>1.3798317847810699</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="6">
         <v>5.2697601183350704</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>3.33793543545185</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="6">
         <v>5.4519710871198299</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="6">
         <v>4.5049222871209604</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="6">
         <v>7.4893274403686201</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="6">
         <v>3.3319577252522801</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="6">
         <v>2.6348184471287301</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="6">
         <v>3.1132068399397799</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="6">
         <v>3.3631872663401801</v>
       </c>
     </row>
@@ -1457,51 +1464,51 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="8">
+        <v>56</v>
+      </c>
+      <c r="D8">
         <v>2016</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>2.76423826923862</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>2.66745965450948</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>3.7653846492768599</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="6">
         <v>4.3977845022154201</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="6">
         <v>1.4555671822649301</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="6">
         <v>6.0825949701395396</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="6">
         <v>4.3965485598405003</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="6">
         <v>5.6627287864148803</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="6">
         <v>5.5566091991903903</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="6">
         <v>8.0773609899681897</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="6">
         <v>3.6906860146009701</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="6">
         <v>3.48176848121232</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="6">
         <v>2.8849313851130298</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="6">
         <v>3.8068271780170302</v>
       </c>
     </row>
@@ -1513,51 +1520,51 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="8">
+        <v>56</v>
+      </c>
+      <c r="D9">
         <v>2018</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>1.88465530024797</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="6">
         <v>1.14406205264149</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>0.89286592255096697</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="6">
         <v>1.38487473662201</v>
       </c>
-      <c r="I9" s="12">
-        <v>2.28215900086462</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="I9" s="6">
+        <v>1.4555671822649301</v>
+      </c>
+      <c r="J9" s="6">
         <v>4.5812405245506698</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="6">
         <v>3.8629112581213398</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="6">
         <v>7.5160023719221902</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="6">
         <v>4.3790027098188302</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="6">
         <v>7.2741122700186098</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="6">
         <v>3.26277309007535</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="6">
         <v>4.2225009720900202</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="6">
         <v>3.0476885647510201</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="6">
         <v>1.6832388647604899</v>
       </c>
     </row>
@@ -1569,51 +1576,51 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8">
+        <v>58</v>
+      </c>
+      <c r="D10">
         <v>2017</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>3.4416952035778299</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <v>3.2137496364738198</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>4.36146607866735</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="6">
         <v>4.5925889750027498</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="6">
         <v>2.4834357591187999</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="6">
         <v>6.16357492466142</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="6">
         <v>4.0457485792251502</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="6">
         <v>7.1081055461193898</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="6">
         <v>4.9609155171647696</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="6">
         <v>8.8215521392359708</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="6">
         <v>4.92262368570261</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="6">
         <v>4.0368242186758803</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="6">
         <v>4.8967328717003999</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="6">
         <v>4.3716656493449104</v>
       </c>
     </row>
@@ -1625,51 +1632,51 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="8">
+        <v>58</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>5.0814298430155898</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>5.7703024500334701</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>6.4358453729554199</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="6">
         <v>6.5734383556023497</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="6">
         <v>5.19856786422769</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="6">
         <v>5.7307393506040896</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="6">
         <v>3.9246959299660098</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="6">
         <v>4.4912758478499901</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="6">
         <v>4.7692866907310396</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="6">
         <v>7.0516090150130601</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="6">
         <v>5.1091058010856996</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="6">
         <v>3.2330647676973898</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="6">
         <v>5.7776892774070996</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="6">
         <v>5.8707758679845297</v>
       </c>
     </row>
@@ -1681,51 +1688,51 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="5">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2">
         <v>2018</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>2.27509198685906</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <v>2.5872278307015102</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>2.3652932773551898</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="6">
         <v>1.8770449967623299</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="6">
         <v>3.4353032135575199</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="6">
         <v>2.7757759243312901</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="6">
         <v>1.80312006959672</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="6">
         <v>7.0927091958516497</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="6">
         <v>1.78742777731614</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="6">
         <v>6.0418060201108501</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="6">
         <v>3.2673331730269801</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="6">
         <v>3.27362323028744</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="6">
         <v>4.2190559842353403</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="6">
         <v>2.0069779949476998</v>
       </c>
     </row>
@@ -1734,54 +1741,54 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="8">
+        <v>56</v>
+      </c>
+      <c r="D13">
         <v>2015</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>2.7764890775229398</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>3.5231474052315002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>4.1381630453190699</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="6">
         <v>4.5833400839142602</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="6">
         <v>2.9059869545835499</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="6">
         <v>4.6651976767710401</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="6">
         <v>3.1269315550902599</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="6">
         <v>3.42984933616414</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="6">
         <v>4.3345125672463096</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="6">
         <v>6.0476196476951696</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="6">
         <v>2.5268434693614399</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="6">
         <v>1.4949627010325299</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="6">
         <v>2.6368990214382801</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="6">
         <v>3.6649693139252499</v>
       </c>
     </row>
@@ -1793,51 +1800,51 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="8">
+        <v>56</v>
+      </c>
+      <c r="D14">
         <v>1978</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>6.27672807930335</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>7.1590371853859596</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>7.4735173291302601</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="6">
         <v>7.8565959271228003</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="6">
         <v>6.6353893127101502</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="6">
         <v>6.58007980422886</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="6">
         <v>5.8800918843431802</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="6">
         <v>0.638803526709395</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="6">
         <v>6.7623047664348404</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="6">
         <v>5.9434937225113398</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="6">
         <v>5.1016784658654899</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="6">
         <v>4.2896997300336199</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="6">
         <v>5.3639314108973402</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="6">
         <v>6.8569054382598003</v>
       </c>
     </row>
@@ -1846,54 +1853,54 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8">
+        <v>58</v>
+      </c>
+      <c r="D15">
         <v>2018</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>2.2955068466492801</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="6">
         <v>3.3134309778020801</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>2.9729790631156101</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="6">
         <v>2.9790366654418898</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="6">
         <v>3.7940604464373502</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="6">
         <v>1.7329291146784001</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="6">
         <v>1.54708192192814</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="6">
         <v>4.7695113604527597</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="6">
         <v>2.11253034814357</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="6">
         <v>3.8818831253721902</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="6">
         <v>1.3317170961029701</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="6">
         <v>1.6852323464416199</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="6">
         <v>2.8783101523586301</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="6">
         <v>2.1553732578839302</v>
       </c>
     </row>
@@ -1905,51 +1912,51 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8">
+        <v>56</v>
+      </c>
+      <c r="D16">
         <v>2016</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>4.7443133952435597</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>5.4590391479066298</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>6.1504356658802504</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="6">
         <v>6.49208307990195</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="6">
         <v>4.7084121505126104</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="6">
         <v>5.9362735751725602</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="6">
         <v>4.3031895165289598</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="6">
         <v>3.0444971212199698</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="6">
         <v>5.3837735236171103</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="6">
         <v>6.8388901176141701</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="6">
         <v>4.45785039430449</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="6">
         <v>2.8762721336335901</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="6">
         <v>4.7463830825965898</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="6">
         <v>5.6235979700525496</v>
       </c>
     </row>
@@ -1958,54 +1965,54 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8">
+        <v>56</v>
+      </c>
+      <c r="D17">
         <v>2016</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>2.13450104533712</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="6">
         <v>3.18818544546393</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>3.0185602176107902</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="6">
         <v>3.1558033128287399</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="6">
         <v>3.5032078804829498</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="6">
         <v>2.278998409568</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="6">
         <v>1.68781673983372</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="6">
         <v>4.3501565835866502</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="6">
         <v>2.5034111363394098</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="6">
         <v>4.1345312219653403</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="6">
         <v>1.04013693162081</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="6">
         <v>1.2496820884061399</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="6">
         <v>2.5185200774344501</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="6">
         <v>2.23583736995309</v>
       </c>
     </row>
@@ -2017,51 +2024,51 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18">
         <v>2017</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>3.9056216016245799</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="6">
         <v>4.7949370068203603</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>5.1125959353964996</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="6">
         <v>5.5185136466097404</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="6">
         <v>4.3687058624128001</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="6">
         <v>4.7725475885152102</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="6">
         <v>3.8369461317170201</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="6">
         <v>1.91205243138978</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="6">
         <v>4.8643104738000602</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="6">
         <v>5.1853547257682404</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="6">
         <v>2.8456720155529198</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="6">
         <v>2.11688757398692</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="6">
         <v>3.15474373696413</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="6">
         <v>4.5200798429376299</v>
       </c>
     </row>
@@ -2073,51 +2080,51 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19">
         <v>2017</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>1.27849580282336</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="6">
         <v>2.15934852311003</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>1.8507697064453901</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="6">
         <v>2.2519131199153302</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="6">
         <v>2.68846828311495</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="6">
         <v>2.9989456609562799</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="6">
         <v>2.4959193201088401</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="6">
         <v>5.1534550337605802</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="6">
         <v>3.2699040363277101</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="6">
         <v>5.0410559790233798</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="6">
         <v>0.69087987379764304</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="6">
         <v>2.1965741716266498</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="6">
         <v>1.49307223488177</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="6">
         <v>1.2496162489339599</v>
       </c>
     </row>
@@ -2129,51 +2136,51 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="8">
+        <v>56</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>1.2044283402568501</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="6">
         <v>1.8586480900242499</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>1.675750703312</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="6">
         <v>2.26147633142461</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="6">
         <v>2.3394681413610598</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="6">
         <v>3.5779482254708999</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="6">
         <v>2.9658943696959299</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="6">
         <v>5.3728602495025104</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="6">
         <v>3.78231598467486</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="6">
         <v>5.5766133093810701</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="6">
         <v>1.15315970706096</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="6">
         <v>2.5639754290509602</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="6">
         <v>1.11456388430794</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="6">
         <v>1.3424008947530399</v>
       </c>
     </row>
@@ -2185,51 +2192,51 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="8">
+        <v>56</v>
+      </c>
+      <c r="D21">
         <v>2019</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>2.6302316312013301</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <v>3.0436766438068101</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>2.8063460959251398</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="6">
         <v>2.3022842504939098</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="6">
         <v>3.8270722802940398</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="6">
         <v>2.53983173436654</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="6">
         <v>1.6367850299312401</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="6">
         <v>7.0554812855168398</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="6">
         <v>1.3682538828786901</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="6">
         <v>5.8229025504102001</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="6">
         <v>3.4197698754914798</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="6">
         <v>3.2757947507566598</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="6">
         <v>4.5054240459232799</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="6">
         <v>2.3642759220107599</v>
       </c>
     </row>
@@ -2241,51 +2248,51 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="5">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2">
         <v>2020</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>3.6737523452820402</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <v>3.6566350641305898</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>3.2898034086020198</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="6">
         <v>2.5944047563734198</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="6">
         <v>4.61684026978193</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="6">
         <v>3.7015610311170102</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="6">
         <v>3.2693895549929799</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="6">
         <v>8.6606901255467292</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="6">
         <v>2.7821649816545002</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="6">
         <v>7.0249417465281097</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="6">
         <v>4.7415132604527903</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="6">
         <v>4.8541759330522103</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="6">
         <v>5.61321603915545</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="6">
         <v>3.21388851084162</v>
       </c>
     </row>
@@ -2297,51 +2304,51 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2">
         <v>2020</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>4.03054938778675</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <v>4.3785061778156198</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>4.4375913273399101</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="6">
         <v>3.96703780593836</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="6">
         <v>4.8664573226120798</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="6">
         <v>3.6522539113154702</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="6">
         <v>2.4726951998872901</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="6">
         <v>7.7022105787157997</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="6">
         <v>2.0384006383071198</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="6">
         <v>6.7000613269198004</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="6">
         <v>4.84452184079072</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="6">
         <v>4.0814037491484303</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="6">
         <v>5.9515737844400602</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="6">
         <v>4.0369031339574697</v>
       </c>
     </row>
@@ -2353,51 +2360,51 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="8">
+        <v>58</v>
+      </c>
+      <c r="D24">
         <v>2017</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>1.2130528305169399</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <v>2.15558504667383</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>1.8620681152980001</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="6">
         <v>1.92118005858903</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="6">
         <v>2.8214252137470499</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="6">
         <v>2.3526478005432101</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="6">
         <v>1.5419852253144299</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="6">
         <v>5.5168851478349898</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="6">
         <v>2.2544969053937201</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="6">
         <v>4.9855950532982396</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="6">
         <v>1.37815689857044</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="6">
         <v>1.98052861515962</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="6">
         <v>2.5073091848764202</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="6">
         <v>1.0704751460928601</v>
       </c>
     </row>
@@ -2409,51 +2416,51 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2">
         <v>2020</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>3.6167321964032801</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <v>3.80822708149713</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>3.5313541433130902</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="6">
         <v>2.8908983493771498</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="6">
         <v>4.6456589157185899</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="6">
         <v>3.2549905664899099</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="6">
         <v>2.6903316209900598</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="6">
         <v>8.1475997104982003</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="6">
         <v>2.0874253113091199</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="6">
         <v>6.5595363310870098</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="6">
         <v>4.5216826338279104</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="6">
         <v>4.3796771920621298</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="6">
         <v>5.5558314457848299</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="6">
         <v>3.2656596504762998</v>
       </c>
     </row>
@@ -2462,54 +2469,54 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="8">
+        <v>56</v>
+      </c>
+      <c r="D26">
         <v>2015</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>2.1611485051393502</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="6">
         <v>1.9580491650364</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>2.35054076462362</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="6">
         <v>3.1377149119433301</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="6">
         <v>1.9174341247750499</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="6">
         <v>5.3010221821016996</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="6">
         <v>4.4136523995612897</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="6">
         <v>6.1500975211520599</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="6">
         <v>5.3230879585070898</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="6">
         <v>7.2178288238857</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="6">
         <v>2.7863394411059001</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="6">
         <v>3.8157939667206602</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="6">
         <v>1.55554638301639</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="6">
         <v>2.6113083005300401</v>
       </c>
     </row>
@@ -2521,51 +2528,51 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="8">
+        <v>56</v>
+      </c>
+      <c r="D27">
         <v>2016</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <v>0.45954770833592101</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="6">
         <v>0.95839588214074301</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>1.4005396124704299</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="6">
         <v>2.0044717626411201</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="6">
         <v>1.46342362600696</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="6">
         <v>3.8878981202106302</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="6">
         <v>2.7631883582512899</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="6">
         <v>5.8072397358549299</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="6">
         <v>3.6618388218848001</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="6">
         <v>6.2808138358442003</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="6">
         <v>1.8666137845691499</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="6">
         <v>2.57844933070754</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="6">
         <v>1.79009555040924</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27" s="6">
         <v>1.2745190207427299</v>
       </c>
     </row>
@@ -2577,51 +2584,51 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="8">
+        <v>56</v>
+      </c>
+      <c r="D28">
         <v>2018</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>3.84277940158904</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="6">
         <v>4.7883056575589196</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>4.5385179316102997</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="6">
         <v>4.8568738755764</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="6">
         <v>4.8996347238700704</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="6">
         <v>3.7100253156088501</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="6">
         <v>3.8845256809852202</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="6">
         <v>3.1440082170763</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="6">
         <v>4.5469298773206601</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="6">
         <v>3.5650382201527</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="6">
         <v>2.06109716208584</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="6">
         <v>2.7790179989122001</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="6">
         <v>2.7325736414862001</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28" s="6">
         <v>3.8985324293519099</v>
       </c>
     </row>
@@ -2633,51 +2640,51 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="8">
+        <v>56</v>
+      </c>
+      <c r="D29">
         <v>2019</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="6">
         <v>1.4514227414140399</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="6">
         <v>2.5084302346413598</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>2.5290620532305002</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="6">
         <v>2.7564425130189898</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="6">
         <v>2.77626315999956</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="6">
         <v>2.7161736807166501</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="6">
         <v>1.6082769264743899</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="6">
         <v>4.6457989334883099</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="6">
         <v>2.61956079111568</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="6">
         <v>4.8566910240047303</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="6">
         <v>1.0143117186241399</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="6">
         <v>1.1615685996621601</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="6">
         <v>2.1922498817991198</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="6">
         <v>1.8125106562772799</v>
       </c>
     </row>
@@ -2689,454 +2696,459 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="8">
+        <v>56</v>
+      </c>
+      <c r="D30">
         <v>2019</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>1.18351724582033</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="6">
         <v>2.2077395258180199</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>2.2883233851443601</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="6">
         <v>2.6588036691833601</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="6">
         <v>2.4348992987162501</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="6">
         <v>3.1115071522779001</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="6">
         <v>2.0820903977803198</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="6">
         <v>4.7062424429789802</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="6">
         <v>3.0830490501260002</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="6">
         <v>5.1588439040585801</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="6">
         <v>0.84324831179645199</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="6">
         <v>1.4730376767234501</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="6">
         <v>1.6941840657585601</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="6">
         <v>1.6698488997072201</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
         <v>2014</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <v>2.8234741859980499</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="6">
         <v>3.6918566598159601</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>3.9613058020679102</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="6">
         <v>3.94465071389557</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="6">
         <v>3.7198549607915301</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="6">
         <v>3.0263594653848802</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="6">
         <v>1.0787764101639099</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="6">
         <v>4.78880991877603</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="6">
         <v>2.0790501709151901</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="6">
         <v>5.2113829074601998</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="6">
         <v>2.8522878499301401</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="6">
         <v>1.3305189166266</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="Q31" s="6">
         <v>3.98780923434912</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="6">
         <v>3.28198267940282</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2">
         <v>2020</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>3.1267295997421498</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="6">
         <v>3.45618140219824</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>3.44975373738502</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="6">
         <v>2.9853058875369598</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="6">
         <v>4.0697332305669303</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="6">
         <v>3.1563174553728301</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="6">
         <v>1.91915416622811</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="6">
         <v>7.3398388936162098</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="6">
         <v>1.66833985754022</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="6">
         <v>6.3665970159872396</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="6">
         <v>4.0467872157273002</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="6">
         <v>3.5573464087827298</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="6">
         <v>5.0880276810884002</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="6">
         <v>3.0699612631349198</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33">
         <v>2015</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>5.5193495322298096</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="6">
         <v>6.34962053616273</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>6.6675649858743196</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="6">
         <v>6.5882252122597604</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="6">
         <v>6.1768562136093097</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="6">
         <v>4.8060802155567401</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="6">
         <v>3.57488493467525</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="6">
         <v>5.0548898042616699</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="6">
         <v>3.9062313992042901</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="6">
         <v>5.9321846435531</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="6">
         <v>5.2752270383335098</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="6">
         <v>3.5595568336954599</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="6">
         <v>6.4077706413924203</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="6">
         <v>5.9714486148675396</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2">
         <v>2019</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>3.0540026240428699</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="6">
         <v>2.8010305926200201</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>3.8751927464095002</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="6">
         <v>4.55274650934353</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="6">
         <v>1.6521317255533201</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="6">
         <v>6.4707650111696804</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="6">
         <v>4.8785324869259901</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="6">
         <v>6.0549594713996804</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="6">
         <v>6.0084609371775297</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="6">
         <v>8.4528239875200999</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="6">
         <v>3.9999999065615</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="6">
         <v>4.00000015025672</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="6">
         <v>2.9999999931350101</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="6">
         <v>4.02392184729253</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
         <v>2020</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="6">
         <v>3.8537520828827798</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="6">
         <v>4.1404026675598598</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>4.0292056310676001</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="6">
         <v>3.4688946902629199</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="6">
         <v>4.8085515233820502</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="6">
         <v>3.3801867079949202</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="6">
         <v>2.5304544030684499</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="6">
         <v>7.94571321092352</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="6">
         <v>1.9295582196199099</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="6">
         <v>6.5801446567686597</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="6">
         <v>4.6978613059405498</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="6">
         <v>4.23569021911237</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="6">
         <v>5.7972953423011298</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="6">
         <v>3.6781286176427201</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="2">
         <v>2020</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>3.9633164428443899</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="6">
         <v>4.4366582777298698</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>4.4136399648454896</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="6">
         <v>3.9479236763986698</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="6">
         <v>4.94103510558603</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="6">
         <v>3.19185054843736</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="6">
         <v>2.1497530783022398</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="6">
         <v>7.3360490784061696</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="6">
         <v>1.57177107485613</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="6">
         <v>6.1644775787826598</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="6">
         <v>4.5688548430085998</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="6">
         <v>3.7989202978553398</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="6">
         <v>5.7779469181436296</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="6">
         <v>3.9240405740315198</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
         <v>2019</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="6">
         <v>2.8841869986832802</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="6">
         <v>3.1469145888717902</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>3.0030435777665301</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="6">
         <v>2.4748817821308098</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="6">
         <v>3.91228472154534</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="6">
         <v>3.0229663236601101</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="6">
         <v>2.0336783507443399</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="6">
         <v>7.46538872374372</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="6">
         <v>1.76639985061896</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="6">
         <v>6.3161245168533604</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="6">
         <v>3.86052551535751</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="6">
         <v>3.6478715703339</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="6">
         <v>4.8559659848985302</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="6">
         <v>2.67768469338279</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Supplimentary-data/Supplementary data 2.xlsx
+++ b/Supplimentary-data/Supplementary data 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliacoggon/Github/Euro-Swine-Risk/Supplimentary-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DB5618-BAA3-4444-981F-BB5BDC847902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F10053-3DED-F146-9ACA-D6A562BD8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23400" yWindow="-9540" windowWidth="23400" windowHeight="19060" xr2:uid="{58B45472-9861-A54C-9903-3895F3668438}"/>
   </bookViews>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>

--- a/Supplimentary-data/Supplementary data 2.xlsx
+++ b/Supplimentary-data/Supplementary data 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliacoggon/Github/Euro-Swine-Risk/Supplimentary-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F10053-3DED-F146-9ACA-D6A562BD8FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4BDE8B-EA9A-A944-A84D-C536496593E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23400" yWindow="-9540" windowWidth="23400" windowHeight="19060" xr2:uid="{58B45472-9861-A54C-9903-3895F3668438}"/>
+    <workbookView xWindow="2720" yWindow="760" windowWidth="23400" windowHeight="18880" xr2:uid="{58B45472-9861-A54C-9903-3895F3668438}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary data 2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>Strain</t>
   </si>
@@ -231,6 +231,20 @@
   </si>
   <si>
     <t>H1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary data 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ferret antisera and test viruses used in this study including subtype and clade information. Antigenic distances as calculated using antigenic cartography between test antigens and antisera raised in ferrets.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -240,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -730,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -740,6 +761,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1115,11 +1139,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F04EEA-710D-0647-AA23-C4C4E79B7735}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1139,214 +1161,163 @@
     <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="194" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="194" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>63</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D4" s="5" t="s">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>2009</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.0504247547921699</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.09400668091272</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.62461687431697799</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.35844655850483</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2.1032398430869002</v>
-      </c>
-      <c r="J5" s="6">
-        <v>3.7834906279697198</v>
-      </c>
-      <c r="K5" s="6">
-        <v>3.1130016544589698</v>
-      </c>
-      <c r="L5" s="6">
-        <v>6.4231452867529697</v>
-      </c>
-      <c r="M5" s="6">
-        <v>3.7645627923954299</v>
-      </c>
-      <c r="N5" s="6">
-        <v>6.2587389735505798</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2.1064749934624998</v>
-      </c>
-      <c r="P5" s="6">
-        <v>3.23536336668325</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>2.0700716977509601</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0.846601191085809</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1355,110 +1326,110 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E6" s="6">
-        <v>3.4763085193391499</v>
+        <v>1.0504247547921699</v>
       </c>
       <c r="F6" s="6">
-        <v>3.1122229603598499</v>
+        <v>1.09400668091272</v>
       </c>
       <c r="G6" s="6">
-        <v>2.8960884681678598</v>
+        <v>0.62461687431697799</v>
       </c>
       <c r="H6" s="6">
-        <v>3.5733039175271002</v>
+        <v>1.35844655850483</v>
       </c>
       <c r="I6" s="6">
-        <v>3.5114760413630401</v>
+        <v>2.1032398430869002</v>
       </c>
       <c r="J6" s="6">
-        <v>6.0114206745284804</v>
+        <v>3.7834906279697198</v>
       </c>
       <c r="K6" s="6">
-        <v>5.6725421281043298</v>
+        <v>3.1130016544589698</v>
       </c>
       <c r="L6" s="6">
-        <v>7.4404099180961403</v>
+        <v>6.4231452867529697</v>
       </c>
       <c r="M6" s="6">
-        <v>6.3444389556345699</v>
+        <v>3.7645627923954299</v>
       </c>
       <c r="N6" s="6">
-        <v>7.7526942443551299</v>
+        <v>6.2587389735505798</v>
       </c>
       <c r="O6" s="6">
-        <v>3.8440594548095799</v>
+        <v>2.1064749934624998</v>
       </c>
       <c r="P6" s="6">
-        <v>5.3148905161826097</v>
+        <v>3.23536336668325</v>
       </c>
       <c r="Q6" s="6">
-        <v>2.714048027669</v>
+        <v>2.0700716977509601</v>
       </c>
       <c r="R6" s="6">
-        <v>3.3828294717511498</v>
+        <v>0.846601191085809</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2">
-        <v>2016</v>
+      <c r="D7">
+        <v>2015</v>
       </c>
       <c r="E7" s="6">
-        <v>2.25652576396004</v>
+        <v>3.4763085193391499</v>
       </c>
       <c r="F7" s="6">
-        <v>2.4039664421107498</v>
+        <v>3.1122229603598499</v>
       </c>
       <c r="G7" s="6">
-        <v>3.5007996577873701</v>
+        <v>2.8960884681678598</v>
       </c>
       <c r="H7" s="6">
-        <v>3.9598143503765302</v>
+        <v>3.5733039175271002</v>
       </c>
       <c r="I7" s="6">
-        <v>1.3798317847810699</v>
+        <v>3.5114760413630401</v>
       </c>
       <c r="J7" s="6">
-        <v>5.2697601183350704</v>
+        <v>6.0114206745284804</v>
       </c>
       <c r="K7" s="6">
-        <v>3.33793543545185</v>
+        <v>5.6725421281043298</v>
       </c>
       <c r="L7" s="6">
-        <v>5.4519710871198299</v>
+        <v>7.4404099180961403</v>
       </c>
       <c r="M7" s="6">
-        <v>4.5049222871209604</v>
+        <v>6.3444389556345699</v>
       </c>
       <c r="N7" s="6">
-        <v>7.4893274403686201</v>
+        <v>7.7526942443551299</v>
       </c>
       <c r="O7" s="6">
-        <v>3.3319577252522801</v>
+        <v>3.8440594548095799</v>
       </c>
       <c r="P7" s="6">
-        <v>2.6348184471287301</v>
+        <v>5.3148905161826097</v>
       </c>
       <c r="Q7" s="6">
-        <v>3.1132068399397799</v>
+        <v>2.714048027669</v>
       </c>
       <c r="R7" s="6">
-        <v>3.3631872663401801</v>
+        <v>3.3828294717511498</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1466,167 +1437,167 @@
       <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2016</v>
       </c>
       <c r="E8" s="6">
-        <v>2.76423826923862</v>
+        <v>2.25652576396004</v>
       </c>
       <c r="F8" s="6">
-        <v>2.66745965450948</v>
+        <v>2.4039664421107498</v>
       </c>
       <c r="G8" s="6">
-        <v>3.7653846492768599</v>
+        <v>3.5007996577873701</v>
       </c>
       <c r="H8" s="6">
-        <v>4.3977845022154201</v>
+        <v>3.9598143503765302</v>
       </c>
       <c r="I8" s="6">
-        <v>1.4555671822649301</v>
+        <v>1.3798317847810699</v>
       </c>
       <c r="J8" s="6">
-        <v>6.0825949701395396</v>
+        <v>5.2697601183350704</v>
       </c>
       <c r="K8" s="6">
-        <v>4.3965485598405003</v>
+        <v>3.33793543545185</v>
       </c>
       <c r="L8" s="6">
-        <v>5.6627287864148803</v>
+        <v>5.4519710871198299</v>
       </c>
       <c r="M8" s="6">
-        <v>5.5566091991903903</v>
+        <v>4.5049222871209604</v>
       </c>
       <c r="N8" s="6">
-        <v>8.0773609899681897</v>
+        <v>7.4893274403686201</v>
       </c>
       <c r="O8" s="6">
-        <v>3.6906860146009701</v>
+        <v>3.3319577252522801</v>
       </c>
       <c r="P8" s="6">
-        <v>3.48176848121232</v>
+        <v>2.6348184471287301</v>
       </c>
       <c r="Q8" s="6">
-        <v>2.8849313851130298</v>
+        <v>3.1132068399397799</v>
       </c>
       <c r="R8" s="6">
-        <v>3.8068271780170302</v>
+        <v>3.3631872663401801</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
       <c r="D9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E9" s="6">
-        <v>1.88465530024797</v>
+        <v>2.76423826923862</v>
       </c>
       <c r="F9" s="6">
-        <v>1.14406205264149</v>
+        <v>2.66745965450948</v>
       </c>
       <c r="G9" s="6">
-        <v>0.89286592255096697</v>
+        <v>3.7653846492768599</v>
       </c>
       <c r="H9" s="6">
-        <v>1.38487473662201</v>
+        <v>4.3977845022154201</v>
       </c>
       <c r="I9" s="6">
         <v>1.4555671822649301</v>
       </c>
       <c r="J9" s="6">
-        <v>4.5812405245506698</v>
+        <v>6.0825949701395396</v>
       </c>
       <c r="K9" s="6">
-        <v>3.8629112581213398</v>
+        <v>4.3965485598405003</v>
       </c>
       <c r="L9" s="6">
-        <v>7.5160023719221902</v>
+        <v>5.6627287864148803</v>
       </c>
       <c r="M9" s="6">
-        <v>4.3790027098188302</v>
+        <v>5.5566091991903903</v>
       </c>
       <c r="N9" s="6">
-        <v>7.2741122700186098</v>
+        <v>8.0773609899681897</v>
       </c>
       <c r="O9" s="6">
-        <v>3.26277309007535</v>
+        <v>3.6906860146009701</v>
       </c>
       <c r="P9" s="6">
-        <v>4.2225009720900202</v>
+        <v>3.48176848121232</v>
       </c>
       <c r="Q9" s="6">
-        <v>3.0476885647510201</v>
+        <v>2.8849313851130298</v>
       </c>
       <c r="R9" s="6">
-        <v>1.6832388647604899</v>
+        <v>3.8068271780170302</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E10" s="6">
-        <v>3.4416952035778299</v>
+        <v>1.88465530024797</v>
       </c>
       <c r="F10" s="6">
-        <v>3.2137496364738198</v>
+        <v>1.14406205264149</v>
       </c>
       <c r="G10" s="6">
-        <v>4.36146607866735</v>
+        <v>0.89286592255096697</v>
       </c>
       <c r="H10" s="6">
-        <v>4.5925889750027498</v>
+        <v>1.38487473662201</v>
       </c>
       <c r="I10" s="6">
-        <v>2.4834357591187999</v>
+        <v>1.4555671822649301</v>
       </c>
       <c r="J10" s="6">
-        <v>6.16357492466142</v>
+        <v>4.5812405245506698</v>
       </c>
       <c r="K10" s="6">
-        <v>4.0457485792251502</v>
+        <v>3.8629112581213398</v>
       </c>
       <c r="L10" s="6">
-        <v>7.1081055461193898</v>
+        <v>7.5160023719221902</v>
       </c>
       <c r="M10" s="6">
-        <v>4.9609155171647696</v>
+        <v>4.3790027098188302</v>
       </c>
       <c r="N10" s="6">
-        <v>8.8215521392359708</v>
+        <v>7.2741122700186098</v>
       </c>
       <c r="O10" s="6">
-        <v>4.92262368570261</v>
+        <v>3.26277309007535</v>
       </c>
       <c r="P10" s="6">
-        <v>4.0368242186758803</v>
+        <v>4.2225009720900202</v>
       </c>
       <c r="Q10" s="6">
-        <v>4.8967328717003999</v>
+        <v>3.0476885647510201</v>
       </c>
       <c r="R10" s="6">
-        <v>4.3716656493449104</v>
+        <v>1.6832388647604899</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1638,51 +1609,51 @@
         <v>2017</v>
       </c>
       <c r="E11" s="6">
-        <v>5.0814298430155898</v>
+        <v>3.4416952035778299</v>
       </c>
       <c r="F11" s="6">
-        <v>5.7703024500334701</v>
+        <v>3.2137496364738198</v>
       </c>
       <c r="G11" s="6">
-        <v>6.4358453729554199</v>
+        <v>4.36146607866735</v>
       </c>
       <c r="H11" s="6">
-        <v>6.5734383556023497</v>
+        <v>4.5925889750027498</v>
       </c>
       <c r="I11" s="6">
-        <v>5.19856786422769</v>
+        <v>2.4834357591187999</v>
       </c>
       <c r="J11" s="6">
-        <v>5.7307393506040896</v>
+        <v>6.16357492466142</v>
       </c>
       <c r="K11" s="6">
-        <v>3.9246959299660098</v>
+        <v>4.0457485792251502</v>
       </c>
       <c r="L11" s="6">
-        <v>4.4912758478499901</v>
+        <v>7.1081055461193898</v>
       </c>
       <c r="M11" s="6">
-        <v>4.7692866907310396</v>
+        <v>4.9609155171647696</v>
       </c>
       <c r="N11" s="6">
-        <v>7.0516090150130601</v>
+        <v>8.8215521392359708</v>
       </c>
       <c r="O11" s="6">
-        <v>5.1091058010856996</v>
+        <v>4.92262368570261</v>
       </c>
       <c r="P11" s="6">
-        <v>3.2330647676973898</v>
+        <v>4.0368242186758803</v>
       </c>
       <c r="Q11" s="6">
-        <v>5.7776892774070996</v>
+        <v>4.8967328717003999</v>
       </c>
       <c r="R11" s="6">
-        <v>5.8707758679845297</v>
+        <v>4.3716656493449104</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1690,282 +1661,282 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2">
-        <v>2018</v>
+      <c r="D12">
+        <v>2017</v>
       </c>
       <c r="E12" s="6">
-        <v>2.27509198685906</v>
+        <v>5.0814298430155898</v>
       </c>
       <c r="F12" s="6">
-        <v>2.5872278307015102</v>
+        <v>5.7703024500334701</v>
       </c>
       <c r="G12" s="6">
-        <v>2.3652932773551898</v>
+        <v>6.4358453729554199</v>
       </c>
       <c r="H12" s="6">
-        <v>1.8770449967623299</v>
+        <v>6.5734383556023497</v>
       </c>
       <c r="I12" s="6">
-        <v>3.4353032135575199</v>
+        <v>5.19856786422769</v>
       </c>
       <c r="J12" s="6">
-        <v>2.7757759243312901</v>
+        <v>5.7307393506040896</v>
       </c>
       <c r="K12" s="6">
-        <v>1.80312006959672</v>
+        <v>3.9246959299660098</v>
       </c>
       <c r="L12" s="6">
-        <v>7.0927091958516497</v>
+        <v>4.4912758478499901</v>
       </c>
       <c r="M12" s="6">
-        <v>1.78742777731614</v>
+        <v>4.7692866907310396</v>
       </c>
       <c r="N12" s="6">
-        <v>6.0418060201108501</v>
+        <v>7.0516090150130601</v>
       </c>
       <c r="O12" s="6">
-        <v>3.2673331730269801</v>
+        <v>5.1091058010856996</v>
       </c>
       <c r="P12" s="6">
-        <v>3.27362323028744</v>
+        <v>3.2330647676973898</v>
       </c>
       <c r="Q12" s="6">
-        <v>4.2190559842353403</v>
+        <v>5.7776892774070996</v>
       </c>
       <c r="R12" s="6">
-        <v>2.0069779949476998</v>
+        <v>5.8707758679845297</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>2015</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2018</v>
       </c>
       <c r="E13" s="6">
-        <v>2.7764890775229398</v>
+        <v>2.27509198685906</v>
       </c>
       <c r="F13" s="6">
-        <v>3.5231474052315002</v>
+        <v>2.5872278307015102</v>
       </c>
       <c r="G13" s="6">
-        <v>4.1381630453190699</v>
+        <v>2.3652932773551898</v>
       </c>
       <c r="H13" s="6">
-        <v>4.5833400839142602</v>
+        <v>1.8770449967623299</v>
       </c>
       <c r="I13" s="6">
-        <v>2.9059869545835499</v>
+        <v>3.4353032135575199</v>
       </c>
       <c r="J13" s="6">
-        <v>4.6651976767710401</v>
+        <v>2.7757759243312901</v>
       </c>
       <c r="K13" s="6">
-        <v>3.1269315550902599</v>
+        <v>1.80312006959672</v>
       </c>
       <c r="L13" s="6">
-        <v>3.42984933616414</v>
+        <v>7.0927091958516497</v>
       </c>
       <c r="M13" s="6">
-        <v>4.3345125672463096</v>
+        <v>1.78742777731614</v>
       </c>
       <c r="N13" s="6">
-        <v>6.0476196476951696</v>
+        <v>6.0418060201108501</v>
       </c>
       <c r="O13" s="6">
-        <v>2.5268434693614399</v>
+        <v>3.2673331730269801</v>
       </c>
       <c r="P13" s="6">
-        <v>1.4949627010325299</v>
+        <v>3.27362323028744</v>
       </c>
       <c r="Q13" s="6">
-        <v>2.6368990214382801</v>
+        <v>4.2190559842353403</v>
       </c>
       <c r="R13" s="6">
-        <v>3.6649693139252499</v>
+        <v>2.0069779949476998</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
       </c>
       <c r="D14">
-        <v>1978</v>
+        <v>2015</v>
       </c>
       <c r="E14" s="6">
-        <v>6.27672807930335</v>
+        <v>2.7764890775229398</v>
       </c>
       <c r="F14" s="6">
-        <v>7.1590371853859596</v>
+        <v>3.5231474052315002</v>
       </c>
       <c r="G14" s="6">
-        <v>7.4735173291302601</v>
+        <v>4.1381630453190699</v>
       </c>
       <c r="H14" s="6">
-        <v>7.8565959271228003</v>
+        <v>4.5833400839142602</v>
       </c>
       <c r="I14" s="6">
-        <v>6.6353893127101502</v>
+        <v>2.9059869545835499</v>
       </c>
       <c r="J14" s="6">
-        <v>6.58007980422886</v>
+        <v>4.6651976767710401</v>
       </c>
       <c r="K14" s="6">
-        <v>5.8800918843431802</v>
+        <v>3.1269315550902599</v>
       </c>
       <c r="L14" s="6">
-        <v>0.638803526709395</v>
+        <v>3.42984933616414</v>
       </c>
       <c r="M14" s="6">
-        <v>6.7623047664348404</v>
+        <v>4.3345125672463096</v>
       </c>
       <c r="N14" s="6">
-        <v>5.9434937225113398</v>
+        <v>6.0476196476951696</v>
       </c>
       <c r="O14" s="6">
-        <v>5.1016784658654899</v>
+        <v>2.5268434693614399</v>
       </c>
       <c r="P14" s="6">
-        <v>4.2896997300336199</v>
+        <v>1.4949627010325299</v>
       </c>
       <c r="Q14" s="6">
-        <v>5.3639314108973402</v>
+        <v>2.6368990214382801</v>
       </c>
       <c r="R14" s="6">
-        <v>6.8569054382598003</v>
+        <v>3.6649693139252499</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="E15" s="6">
-        <v>2.2955068466492801</v>
+        <v>6.27672807930335</v>
       </c>
       <c r="F15" s="6">
-        <v>3.3134309778020801</v>
+        <v>7.1590371853859596</v>
       </c>
       <c r="G15" s="6">
-        <v>2.9729790631156101</v>
+        <v>7.4735173291302601</v>
       </c>
       <c r="H15" s="6">
-        <v>2.9790366654418898</v>
+        <v>7.8565959271228003</v>
       </c>
       <c r="I15" s="6">
-        <v>3.7940604464373502</v>
+        <v>6.6353893127101502</v>
       </c>
       <c r="J15" s="6">
-        <v>1.7329291146784001</v>
+        <v>6.58007980422886</v>
       </c>
       <c r="K15" s="6">
-        <v>1.54708192192814</v>
+        <v>5.8800918843431802</v>
       </c>
       <c r="L15" s="6">
-        <v>4.7695113604527597</v>
+        <v>0.638803526709395</v>
       </c>
       <c r="M15" s="6">
-        <v>2.11253034814357</v>
+        <v>6.7623047664348404</v>
       </c>
       <c r="N15" s="6">
-        <v>3.8818831253721902</v>
+        <v>5.9434937225113398</v>
       </c>
       <c r="O15" s="6">
-        <v>1.3317170961029701</v>
+        <v>5.1016784658654899</v>
       </c>
       <c r="P15" s="6">
-        <v>1.6852323464416199</v>
+        <v>4.2896997300336199</v>
       </c>
       <c r="Q15" s="6">
-        <v>2.8783101523586301</v>
+        <v>5.3639314108973402</v>
       </c>
       <c r="R15" s="6">
-        <v>2.1553732578839302</v>
+        <v>6.8569054382598003</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E16" s="6">
-        <v>4.7443133952435597</v>
+        <v>2.2955068466492801</v>
       </c>
       <c r="F16" s="6">
-        <v>5.4590391479066298</v>
+        <v>3.3134309778020801</v>
       </c>
       <c r="G16" s="6">
-        <v>6.1504356658802504</v>
+        <v>2.9729790631156101</v>
       </c>
       <c r="H16" s="6">
-        <v>6.49208307990195</v>
+        <v>2.9790366654418898</v>
       </c>
       <c r="I16" s="6">
-        <v>4.7084121505126104</v>
+        <v>3.7940604464373502</v>
       </c>
       <c r="J16" s="6">
-        <v>5.9362735751725602</v>
+        <v>1.7329291146784001</v>
       </c>
       <c r="K16" s="6">
-        <v>4.3031895165289598</v>
+        <v>1.54708192192814</v>
       </c>
       <c r="L16" s="6">
-        <v>3.0444971212199698</v>
+        <v>4.7695113604527597</v>
       </c>
       <c r="M16" s="6">
-        <v>5.3837735236171103</v>
+        <v>2.11253034814357</v>
       </c>
       <c r="N16" s="6">
-        <v>6.8388901176141701</v>
+        <v>3.8818831253721902</v>
       </c>
       <c r="O16" s="6">
-        <v>4.45785039430449</v>
+        <v>1.3317170961029701</v>
       </c>
       <c r="P16" s="6">
-        <v>2.8762721336335901</v>
+        <v>1.6852323464416199</v>
       </c>
       <c r="Q16" s="6">
-        <v>4.7463830825965898</v>
+        <v>2.8783101523586301</v>
       </c>
       <c r="R16" s="6">
-        <v>5.6235979700525496</v>
+        <v>2.1553732578839302</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1974,107 +1945,107 @@
         <v>2016</v>
       </c>
       <c r="E17" s="6">
-        <v>2.13450104533712</v>
+        <v>4.7443133952435597</v>
       </c>
       <c r="F17" s="6">
-        <v>3.18818544546393</v>
+        <v>5.4590391479066298</v>
       </c>
       <c r="G17" s="6">
-        <v>3.0185602176107902</v>
+        <v>6.1504356658802504</v>
       </c>
       <c r="H17" s="6">
-        <v>3.1558033128287399</v>
+        <v>6.49208307990195</v>
       </c>
       <c r="I17" s="6">
-        <v>3.5032078804829498</v>
+        <v>4.7084121505126104</v>
       </c>
       <c r="J17" s="6">
-        <v>2.278998409568</v>
+        <v>5.9362735751725602</v>
       </c>
       <c r="K17" s="6">
-        <v>1.68781673983372</v>
+        <v>4.3031895165289598</v>
       </c>
       <c r="L17" s="6">
-        <v>4.3501565835866502</v>
+        <v>3.0444971212199698</v>
       </c>
       <c r="M17" s="6">
-        <v>2.5034111363394098</v>
+        <v>5.3837735236171103</v>
       </c>
       <c r="N17" s="6">
-        <v>4.1345312219653403</v>
+        <v>6.8388901176141701</v>
       </c>
       <c r="O17" s="6">
-        <v>1.04013693162081</v>
+        <v>4.45785039430449</v>
       </c>
       <c r="P17" s="6">
-        <v>1.2496820884061399</v>
+        <v>2.8762721336335901</v>
       </c>
       <c r="Q17" s="6">
-        <v>2.5185200774344501</v>
+        <v>4.7463830825965898</v>
       </c>
       <c r="R17" s="6">
-        <v>2.23583736995309</v>
+        <v>5.6235979700525496</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E18" s="6">
-        <v>3.9056216016245799</v>
+        <v>2.13450104533712</v>
       </c>
       <c r="F18" s="6">
-        <v>4.7949370068203603</v>
+        <v>3.18818544546393</v>
       </c>
       <c r="G18" s="6">
-        <v>5.1125959353964996</v>
+        <v>3.0185602176107902</v>
       </c>
       <c r="H18" s="6">
-        <v>5.5185136466097404</v>
+        <v>3.1558033128287399</v>
       </c>
       <c r="I18" s="6">
-        <v>4.3687058624128001</v>
+        <v>3.5032078804829498</v>
       </c>
       <c r="J18" s="6">
-        <v>4.7725475885152102</v>
+        <v>2.278998409568</v>
       </c>
       <c r="K18" s="6">
-        <v>3.8369461317170201</v>
+        <v>1.68781673983372</v>
       </c>
       <c r="L18" s="6">
-        <v>1.91205243138978</v>
+        <v>4.3501565835866502</v>
       </c>
       <c r="M18" s="6">
-        <v>4.8643104738000602</v>
+        <v>2.5034111363394098</v>
       </c>
       <c r="N18" s="6">
-        <v>5.1853547257682404</v>
+        <v>4.1345312219653403</v>
       </c>
       <c r="O18" s="6">
-        <v>2.8456720155529198</v>
+        <v>1.04013693162081</v>
       </c>
       <c r="P18" s="6">
-        <v>2.11688757398692</v>
+        <v>1.2496820884061399</v>
       </c>
       <c r="Q18" s="6">
-        <v>3.15474373696413</v>
+        <v>2.5185200774344501</v>
       </c>
       <c r="R18" s="6">
-        <v>4.5200798429376299</v>
+        <v>2.23583736995309</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2086,51 +2057,51 @@
         <v>2017</v>
       </c>
       <c r="E19" s="6">
-        <v>1.27849580282336</v>
+        <v>3.9056216016245799</v>
       </c>
       <c r="F19" s="6">
-        <v>2.15934852311003</v>
+        <v>4.7949370068203603</v>
       </c>
       <c r="G19" s="6">
-        <v>1.8507697064453901</v>
+        <v>5.1125959353964996</v>
       </c>
       <c r="H19" s="6">
-        <v>2.2519131199153302</v>
+        <v>5.5185136466097404</v>
       </c>
       <c r="I19" s="6">
-        <v>2.68846828311495</v>
+        <v>4.3687058624128001</v>
       </c>
       <c r="J19" s="6">
-        <v>2.9989456609562799</v>
+        <v>4.7725475885152102</v>
       </c>
       <c r="K19" s="6">
-        <v>2.4959193201088401</v>
+        <v>3.8369461317170201</v>
       </c>
       <c r="L19" s="6">
-        <v>5.1534550337605802</v>
+        <v>1.91205243138978</v>
       </c>
       <c r="M19" s="6">
-        <v>3.2699040363277101</v>
+        <v>4.8643104738000602</v>
       </c>
       <c r="N19" s="6">
-        <v>5.0410559790233798</v>
+        <v>5.1853547257682404</v>
       </c>
       <c r="O19" s="6">
-        <v>0.69087987379764304</v>
+        <v>2.8456720155529198</v>
       </c>
       <c r="P19" s="6">
-        <v>2.1965741716266498</v>
+        <v>2.11688757398692</v>
       </c>
       <c r="Q19" s="6">
-        <v>1.49307223488177</v>
+        <v>3.15474373696413</v>
       </c>
       <c r="R19" s="6">
-        <v>1.2496162489339599</v>
+        <v>4.5200798429376299</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2142,51 +2113,51 @@
         <v>2017</v>
       </c>
       <c r="E20" s="6">
-        <v>1.2044283402568501</v>
+        <v>1.27849580282336</v>
       </c>
       <c r="F20" s="6">
-        <v>1.8586480900242499</v>
+        <v>2.15934852311003</v>
       </c>
       <c r="G20" s="6">
-        <v>1.675750703312</v>
+        <v>1.8507697064453901</v>
       </c>
       <c r="H20" s="6">
-        <v>2.26147633142461</v>
+        <v>2.2519131199153302</v>
       </c>
       <c r="I20" s="6">
-        <v>2.3394681413610598</v>
+        <v>2.68846828311495</v>
       </c>
       <c r="J20" s="6">
-        <v>3.5779482254708999</v>
+        <v>2.9989456609562799</v>
       </c>
       <c r="K20" s="6">
-        <v>2.9658943696959299</v>
+        <v>2.4959193201088401</v>
       </c>
       <c r="L20" s="6">
-        <v>5.3728602495025104</v>
+        <v>5.1534550337605802</v>
       </c>
       <c r="M20" s="6">
-        <v>3.78231598467486</v>
+        <v>3.2699040363277101</v>
       </c>
       <c r="N20" s="6">
-        <v>5.5766133093810701</v>
+        <v>5.0410559790233798</v>
       </c>
       <c r="O20" s="6">
-        <v>1.15315970706096</v>
+        <v>0.69087987379764304</v>
       </c>
       <c r="P20" s="6">
-        <v>2.5639754290509602</v>
+        <v>2.1965741716266498</v>
       </c>
       <c r="Q20" s="6">
-        <v>1.11456388430794</v>
+        <v>1.49307223488177</v>
       </c>
       <c r="R20" s="6">
-        <v>1.3424008947530399</v>
+        <v>1.2496162489339599</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2195,54 +2166,54 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E21" s="6">
-        <v>2.6302316312013301</v>
+        <v>1.2044283402568501</v>
       </c>
       <c r="F21" s="6">
-        <v>3.0436766438068101</v>
+        <v>1.8586480900242499</v>
       </c>
       <c r="G21" s="6">
-        <v>2.8063460959251398</v>
+        <v>1.675750703312</v>
       </c>
       <c r="H21" s="6">
-        <v>2.3022842504939098</v>
+        <v>2.26147633142461</v>
       </c>
       <c r="I21" s="6">
-        <v>3.8270722802940398</v>
+        <v>2.3394681413610598</v>
       </c>
       <c r="J21" s="6">
-        <v>2.53983173436654</v>
+        <v>3.5779482254708999</v>
       </c>
       <c r="K21" s="6">
-        <v>1.6367850299312401</v>
+        <v>2.9658943696959299</v>
       </c>
       <c r="L21" s="6">
-        <v>7.0554812855168398</v>
+        <v>5.3728602495025104</v>
       </c>
       <c r="M21" s="6">
-        <v>1.3682538828786901</v>
+        <v>3.78231598467486</v>
       </c>
       <c r="N21" s="6">
-        <v>5.8229025504102001</v>
+        <v>5.5766133093810701</v>
       </c>
       <c r="O21" s="6">
-        <v>3.4197698754914798</v>
+        <v>1.15315970706096</v>
       </c>
       <c r="P21" s="6">
-        <v>3.2757947507566598</v>
+        <v>2.5639754290509602</v>
       </c>
       <c r="Q21" s="6">
-        <v>4.5054240459232799</v>
+        <v>1.11456388430794</v>
       </c>
       <c r="R21" s="6">
-        <v>2.3642759220107599</v>
+        <v>1.3424008947530399</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2250,55 +2221,55 @@
       <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2">
-        <v>2020</v>
+      <c r="D22">
+        <v>2019</v>
       </c>
       <c r="E22" s="6">
-        <v>3.6737523452820402</v>
+        <v>2.6302316312013301</v>
       </c>
       <c r="F22" s="6">
-        <v>3.6566350641305898</v>
+        <v>3.0436766438068101</v>
       </c>
       <c r="G22" s="6">
-        <v>3.2898034086020198</v>
+        <v>2.8063460959251398</v>
       </c>
       <c r="H22" s="6">
-        <v>2.5944047563734198</v>
+        <v>2.3022842504939098</v>
       </c>
       <c r="I22" s="6">
-        <v>4.61684026978193</v>
+        <v>3.8270722802940398</v>
       </c>
       <c r="J22" s="6">
-        <v>3.7015610311170102</v>
+        <v>2.53983173436654</v>
       </c>
       <c r="K22" s="6">
-        <v>3.2693895549929799</v>
+        <v>1.6367850299312401</v>
       </c>
       <c r="L22" s="6">
-        <v>8.6606901255467292</v>
+        <v>7.0554812855168398</v>
       </c>
       <c r="M22" s="6">
-        <v>2.7821649816545002</v>
+        <v>1.3682538828786901</v>
       </c>
       <c r="N22" s="6">
-        <v>7.0249417465281097</v>
+        <v>5.8229025504102001</v>
       </c>
       <c r="O22" s="6">
-        <v>4.7415132604527903</v>
+        <v>3.4197698754914798</v>
       </c>
       <c r="P22" s="6">
-        <v>4.8541759330522103</v>
+        <v>3.2757947507566598</v>
       </c>
       <c r="Q22" s="6">
-        <v>5.61321603915545</v>
+        <v>4.5054240459232799</v>
       </c>
       <c r="R22" s="6">
-        <v>3.21388851084162</v>
+        <v>2.3642759220107599</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2310,107 +2281,107 @@
         <v>2020</v>
       </c>
       <c r="E23" s="6">
-        <v>4.03054938778675</v>
+        <v>3.6737523452820402</v>
       </c>
       <c r="F23" s="6">
-        <v>4.3785061778156198</v>
+        <v>3.6566350641305898</v>
       </c>
       <c r="G23" s="6">
-        <v>4.4375913273399101</v>
+        <v>3.2898034086020198</v>
       </c>
       <c r="H23" s="6">
-        <v>3.96703780593836</v>
+        <v>2.5944047563734198</v>
       </c>
       <c r="I23" s="6">
-        <v>4.8664573226120798</v>
+        <v>4.61684026978193</v>
       </c>
       <c r="J23" s="6">
-        <v>3.6522539113154702</v>
+        <v>3.7015610311170102</v>
       </c>
       <c r="K23" s="6">
-        <v>2.4726951998872901</v>
+        <v>3.2693895549929799</v>
       </c>
       <c r="L23" s="6">
-        <v>7.7022105787157997</v>
+        <v>8.6606901255467292</v>
       </c>
       <c r="M23" s="6">
-        <v>2.0384006383071198</v>
+        <v>2.7821649816545002</v>
       </c>
       <c r="N23" s="6">
-        <v>6.7000613269198004</v>
+        <v>7.0249417465281097</v>
       </c>
       <c r="O23" s="6">
-        <v>4.84452184079072</v>
+        <v>4.7415132604527903</v>
       </c>
       <c r="P23" s="6">
-        <v>4.0814037491484303</v>
+        <v>4.8541759330522103</v>
       </c>
       <c r="Q23" s="6">
-        <v>5.9515737844400602</v>
+        <v>5.61321603915545</v>
       </c>
       <c r="R23" s="6">
-        <v>4.0369031339574697</v>
+        <v>3.21388851084162</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>2017</v>
+        <v>56</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2020</v>
       </c>
       <c r="E24" s="6">
-        <v>1.2130528305169399</v>
+        <v>4.03054938778675</v>
       </c>
       <c r="F24" s="6">
-        <v>2.15558504667383</v>
+        <v>4.3785061778156198</v>
       </c>
       <c r="G24" s="6">
-        <v>1.8620681152980001</v>
+        <v>4.4375913273399101</v>
       </c>
       <c r="H24" s="6">
-        <v>1.92118005858903</v>
+        <v>3.96703780593836</v>
       </c>
       <c r="I24" s="6">
-        <v>2.8214252137470499</v>
+        <v>4.8664573226120798</v>
       </c>
       <c r="J24" s="6">
-        <v>2.3526478005432101</v>
+        <v>3.6522539113154702</v>
       </c>
       <c r="K24" s="6">
-        <v>1.5419852253144299</v>
+        <v>2.4726951998872901</v>
       </c>
       <c r="L24" s="6">
-        <v>5.5168851478349898</v>
+        <v>7.7022105787157997</v>
       </c>
       <c r="M24" s="6">
-        <v>2.2544969053937201</v>
+        <v>2.0384006383071198</v>
       </c>
       <c r="N24" s="6">
-        <v>4.9855950532982396</v>
+        <v>6.7000613269198004</v>
       </c>
       <c r="O24" s="6">
-        <v>1.37815689857044</v>
+        <v>4.84452184079072</v>
       </c>
       <c r="P24" s="6">
-        <v>1.98052861515962</v>
+        <v>4.0814037491484303</v>
       </c>
       <c r="Q24" s="6">
-        <v>2.5073091848764202</v>
+        <v>5.9515737844400602</v>
       </c>
       <c r="R24" s="6">
-        <v>1.0704751460928601</v>
+        <v>4.0369031339574697</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2418,167 +2389,167 @@
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="2">
-        <v>2020</v>
+      <c r="D25">
+        <v>2017</v>
       </c>
       <c r="E25" s="6">
-        <v>3.6167321964032801</v>
+        <v>1.2130528305169399</v>
       </c>
       <c r="F25" s="6">
-        <v>3.80822708149713</v>
+        <v>2.15558504667383</v>
       </c>
       <c r="G25" s="6">
-        <v>3.5313541433130902</v>
+        <v>1.8620681152980001</v>
       </c>
       <c r="H25" s="6">
-        <v>2.8908983493771498</v>
+        <v>1.92118005858903</v>
       </c>
       <c r="I25" s="6">
-        <v>4.6456589157185899</v>
+        <v>2.8214252137470499</v>
       </c>
       <c r="J25" s="6">
-        <v>3.2549905664899099</v>
+        <v>2.3526478005432101</v>
       </c>
       <c r="K25" s="6">
-        <v>2.6903316209900598</v>
+        <v>1.5419852253144299</v>
       </c>
       <c r="L25" s="6">
-        <v>8.1475997104982003</v>
+        <v>5.5168851478349898</v>
       </c>
       <c r="M25" s="6">
-        <v>2.0874253113091199</v>
+        <v>2.2544969053937201</v>
       </c>
       <c r="N25" s="6">
-        <v>6.5595363310870098</v>
+        <v>4.9855950532982396</v>
       </c>
       <c r="O25" s="6">
-        <v>4.5216826338279104</v>
+        <v>1.37815689857044</v>
       </c>
       <c r="P25" s="6">
-        <v>4.3796771920621298</v>
+        <v>1.98052861515962</v>
       </c>
       <c r="Q25" s="6">
-        <v>5.5558314457848299</v>
+        <v>2.5073091848764202</v>
       </c>
       <c r="R25" s="6">
-        <v>3.2656596504762998</v>
+        <v>1.0704751460928601</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26">
-        <v>2015</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2020</v>
       </c>
       <c r="E26" s="6">
-        <v>2.1611485051393502</v>
+        <v>3.6167321964032801</v>
       </c>
       <c r="F26" s="6">
-        <v>1.9580491650364</v>
+        <v>3.80822708149713</v>
       </c>
       <c r="G26" s="6">
-        <v>2.35054076462362</v>
+        <v>3.5313541433130902</v>
       </c>
       <c r="H26" s="6">
-        <v>3.1377149119433301</v>
+        <v>2.8908983493771498</v>
       </c>
       <c r="I26" s="6">
-        <v>1.9174341247750499</v>
+        <v>4.6456589157185899</v>
       </c>
       <c r="J26" s="6">
-        <v>5.3010221821016996</v>
+        <v>3.2549905664899099</v>
       </c>
       <c r="K26" s="6">
-        <v>4.4136523995612897</v>
+        <v>2.6903316209900598</v>
       </c>
       <c r="L26" s="6">
-        <v>6.1500975211520599</v>
+        <v>8.1475997104982003</v>
       </c>
       <c r="M26" s="6">
-        <v>5.3230879585070898</v>
+        <v>2.0874253113091199</v>
       </c>
       <c r="N26" s="6">
-        <v>7.2178288238857</v>
+        <v>6.5595363310870098</v>
       </c>
       <c r="O26" s="6">
-        <v>2.7863394411059001</v>
+        <v>4.5216826338279104</v>
       </c>
       <c r="P26" s="6">
-        <v>3.8157939667206602</v>
+        <v>4.3796771920621298</v>
       </c>
       <c r="Q26" s="6">
-        <v>1.55554638301639</v>
+        <v>5.5558314457848299</v>
       </c>
       <c r="R26" s="6">
-        <v>2.6113083005300401</v>
+        <v>3.2656596504762998</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E27" s="6">
-        <v>0.45954770833592101</v>
+        <v>2.1611485051393502</v>
       </c>
       <c r="F27" s="6">
-        <v>0.95839588214074301</v>
+        <v>1.9580491650364</v>
       </c>
       <c r="G27" s="6">
-        <v>1.4005396124704299</v>
+        <v>2.35054076462362</v>
       </c>
       <c r="H27" s="6">
-        <v>2.0044717626411201</v>
+        <v>3.1377149119433301</v>
       </c>
       <c r="I27" s="6">
-        <v>1.46342362600696</v>
+        <v>1.9174341247750499</v>
       </c>
       <c r="J27" s="6">
-        <v>3.8878981202106302</v>
+        <v>5.3010221821016996</v>
       </c>
       <c r="K27" s="6">
-        <v>2.7631883582512899</v>
+        <v>4.4136523995612897</v>
       </c>
       <c r="L27" s="6">
-        <v>5.8072397358549299</v>
+        <v>6.1500975211520599</v>
       </c>
       <c r="M27" s="6">
-        <v>3.6618388218848001</v>
+        <v>5.3230879585070898</v>
       </c>
       <c r="N27" s="6">
-        <v>6.2808138358442003</v>
+        <v>7.2178288238857</v>
       </c>
       <c r="O27" s="6">
-        <v>1.8666137845691499</v>
+        <v>2.7863394411059001</v>
       </c>
       <c r="P27" s="6">
-        <v>2.57844933070754</v>
+        <v>3.8157939667206602</v>
       </c>
       <c r="Q27" s="6">
-        <v>1.79009555040924</v>
+        <v>1.55554638301639</v>
       </c>
       <c r="R27" s="6">
-        <v>1.2745190207427299</v>
+        <v>2.6113083005300401</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2587,54 +2558,54 @@
         <v>56</v>
       </c>
       <c r="D28">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E28" s="6">
-        <v>3.84277940158904</v>
+        <v>0.45954770833592101</v>
       </c>
       <c r="F28" s="6">
-        <v>4.7883056575589196</v>
+        <v>0.95839588214074301</v>
       </c>
       <c r="G28" s="6">
-        <v>4.5385179316102997</v>
+        <v>1.4005396124704299</v>
       </c>
       <c r="H28" s="6">
-        <v>4.8568738755764</v>
+        <v>2.0044717626411201</v>
       </c>
       <c r="I28" s="6">
-        <v>4.8996347238700704</v>
+        <v>1.46342362600696</v>
       </c>
       <c r="J28" s="6">
-        <v>3.7100253156088501</v>
+        <v>3.8878981202106302</v>
       </c>
       <c r="K28" s="6">
-        <v>3.8845256809852202</v>
+        <v>2.7631883582512899</v>
       </c>
       <c r="L28" s="6">
-        <v>3.1440082170763</v>
+        <v>5.8072397358549299</v>
       </c>
       <c r="M28" s="6">
-        <v>4.5469298773206601</v>
+        <v>3.6618388218848001</v>
       </c>
       <c r="N28" s="6">
-        <v>3.5650382201527</v>
+        <v>6.2808138358442003</v>
       </c>
       <c r="O28" s="6">
-        <v>2.06109716208584</v>
+        <v>1.8666137845691499</v>
       </c>
       <c r="P28" s="6">
-        <v>2.7790179989122001</v>
+        <v>2.57844933070754</v>
       </c>
       <c r="Q28" s="6">
-        <v>2.7325736414862001</v>
+        <v>1.79009555040924</v>
       </c>
       <c r="R28" s="6">
-        <v>3.8985324293519099</v>
+        <v>1.2745190207427299</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2643,54 +2614,54 @@
         <v>56</v>
       </c>
       <c r="D29">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E29" s="6">
-        <v>1.4514227414140399</v>
+        <v>3.84277940158904</v>
       </c>
       <c r="F29" s="6">
-        <v>2.5084302346413598</v>
+        <v>4.7883056575589196</v>
       </c>
       <c r="G29" s="6">
-        <v>2.5290620532305002</v>
+        <v>4.5385179316102997</v>
       </c>
       <c r="H29" s="6">
-        <v>2.7564425130189898</v>
+        <v>4.8568738755764</v>
       </c>
       <c r="I29" s="6">
-        <v>2.77626315999956</v>
+        <v>4.8996347238700704</v>
       </c>
       <c r="J29" s="6">
-        <v>2.7161736807166501</v>
+        <v>3.7100253156088501</v>
       </c>
       <c r="K29" s="6">
-        <v>1.6082769264743899</v>
+        <v>3.8845256809852202</v>
       </c>
       <c r="L29" s="6">
-        <v>4.6457989334883099</v>
+        <v>3.1440082170763</v>
       </c>
       <c r="M29" s="6">
-        <v>2.61956079111568</v>
+        <v>4.5469298773206601</v>
       </c>
       <c r="N29" s="6">
-        <v>4.8566910240047303</v>
+        <v>3.5650382201527</v>
       </c>
       <c r="O29" s="6">
-        <v>1.0143117186241399</v>
+        <v>2.06109716208584</v>
       </c>
       <c r="P29" s="6">
-        <v>1.1615685996621601</v>
+        <v>2.7790179989122001</v>
       </c>
       <c r="Q29" s="6">
-        <v>2.1922498817991198</v>
+        <v>2.7325736414862001</v>
       </c>
       <c r="R29" s="6">
-        <v>1.8125106562772799</v>
+        <v>3.8985324293519099</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2702,107 +2673,107 @@
         <v>2019</v>
       </c>
       <c r="E30" s="6">
-        <v>1.18351724582033</v>
+        <v>1.4514227414140399</v>
       </c>
       <c r="F30" s="6">
-        <v>2.2077395258180199</v>
+        <v>2.5084302346413598</v>
       </c>
       <c r="G30" s="6">
-        <v>2.2883233851443601</v>
+        <v>2.5290620532305002</v>
       </c>
       <c r="H30" s="6">
-        <v>2.6588036691833601</v>
+        <v>2.7564425130189898</v>
       </c>
       <c r="I30" s="6">
-        <v>2.4348992987162501</v>
+        <v>2.77626315999956</v>
       </c>
       <c r="J30" s="6">
-        <v>3.1115071522779001</v>
+        <v>2.7161736807166501</v>
       </c>
       <c r="K30" s="6">
-        <v>2.0820903977803198</v>
+        <v>1.6082769264743899</v>
       </c>
       <c r="L30" s="6">
-        <v>4.7062424429789802</v>
+        <v>4.6457989334883099</v>
       </c>
       <c r="M30" s="6">
-        <v>3.0830490501260002</v>
+        <v>2.61956079111568</v>
       </c>
       <c r="N30" s="6">
-        <v>5.1588439040585801</v>
+        <v>4.8566910240047303</v>
       </c>
       <c r="O30" s="6">
-        <v>0.84324831179645199</v>
+        <v>1.0143117186241399</v>
       </c>
       <c r="P30" s="6">
-        <v>1.4730376767234501</v>
+        <v>1.1615685996621601</v>
       </c>
       <c r="Q30" s="6">
-        <v>1.6941840657585601</v>
+        <v>2.1922498817991198</v>
       </c>
       <c r="R30" s="6">
-        <v>1.6698488997072201</v>
+        <v>1.8125106562772799</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
       </c>
       <c r="D31">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E31" s="6">
-        <v>2.8234741859980499</v>
+        <v>1.18351724582033</v>
       </c>
       <c r="F31" s="6">
-        <v>3.6918566598159601</v>
+        <v>2.2077395258180199</v>
       </c>
       <c r="G31" s="6">
-        <v>3.9613058020679102</v>
+        <v>2.2883233851443601</v>
       </c>
       <c r="H31" s="6">
-        <v>3.94465071389557</v>
+        <v>2.6588036691833601</v>
       </c>
       <c r="I31" s="6">
-        <v>3.7198549607915301</v>
+        <v>2.4348992987162501</v>
       </c>
       <c r="J31" s="6">
-        <v>3.0263594653848802</v>
+        <v>3.1115071522779001</v>
       </c>
       <c r="K31" s="6">
-        <v>1.0787764101639099</v>
+        <v>2.0820903977803198</v>
       </c>
       <c r="L31" s="6">
-        <v>4.78880991877603</v>
+        <v>4.7062424429789802</v>
       </c>
       <c r="M31" s="6">
-        <v>2.0790501709151901</v>
+        <v>3.0830490501260002</v>
       </c>
       <c r="N31" s="6">
-        <v>5.2113829074601998</v>
+        <v>5.1588439040585801</v>
       </c>
       <c r="O31" s="6">
-        <v>2.8522878499301401</v>
+        <v>0.84324831179645199</v>
       </c>
       <c r="P31" s="6">
-        <v>1.3305189166266</v>
+        <v>1.4730376767234501</v>
       </c>
       <c r="Q31" s="6">
-        <v>3.98780923434912</v>
+        <v>1.6941840657585601</v>
       </c>
       <c r="R31" s="6">
-        <v>3.28198267940282</v>
+        <v>1.6698488997072201</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -2810,111 +2781,111 @@
       <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="2">
-        <v>2020</v>
+      <c r="D32">
+        <v>2014</v>
       </c>
       <c r="E32" s="6">
-        <v>3.1267295997421498</v>
+        <v>2.8234741859980499</v>
       </c>
       <c r="F32" s="6">
-        <v>3.45618140219824</v>
+        <v>3.6918566598159601</v>
       </c>
       <c r="G32" s="6">
-        <v>3.44975373738502</v>
+        <v>3.9613058020679102</v>
       </c>
       <c r="H32" s="6">
-        <v>2.9853058875369598</v>
+        <v>3.94465071389557</v>
       </c>
       <c r="I32" s="6">
-        <v>4.0697332305669303</v>
+        <v>3.7198549607915301</v>
       </c>
       <c r="J32" s="6">
-        <v>3.1563174553728301</v>
+        <v>3.0263594653848802</v>
       </c>
       <c r="K32" s="6">
-        <v>1.91915416622811</v>
+        <v>1.0787764101639099</v>
       </c>
       <c r="L32" s="6">
-        <v>7.3398388936162098</v>
+        <v>4.78880991877603</v>
       </c>
       <c r="M32" s="6">
-        <v>1.66833985754022</v>
+        <v>2.0790501709151901</v>
       </c>
       <c r="N32" s="6">
-        <v>6.3665970159872396</v>
+        <v>5.2113829074601998</v>
       </c>
       <c r="O32" s="6">
-        <v>4.0467872157273002</v>
+        <v>2.8522878499301401</v>
       </c>
       <c r="P32" s="6">
-        <v>3.5573464087827298</v>
+        <v>1.3305189166266</v>
       </c>
       <c r="Q32" s="6">
-        <v>5.0880276810884002</v>
+        <v>3.98780923434912</v>
       </c>
       <c r="R32" s="6">
-        <v>3.0699612631349198</v>
+        <v>3.28198267940282</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33">
-        <v>2015</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2020</v>
       </c>
       <c r="E33" s="6">
-        <v>5.5193495322298096</v>
+        <v>3.1267295997421498</v>
       </c>
       <c r="F33" s="6">
-        <v>6.34962053616273</v>
+        <v>3.45618140219824</v>
       </c>
       <c r="G33" s="6">
-        <v>6.6675649858743196</v>
+        <v>3.44975373738502</v>
       </c>
       <c r="H33" s="6">
-        <v>6.5882252122597604</v>
+        <v>2.9853058875369598</v>
       </c>
       <c r="I33" s="6">
-        <v>6.1768562136093097</v>
+        <v>4.0697332305669303</v>
       </c>
       <c r="J33" s="6">
-        <v>4.8060802155567401</v>
+        <v>3.1563174553728301</v>
       </c>
       <c r="K33" s="6">
-        <v>3.57488493467525</v>
+        <v>1.91915416622811</v>
       </c>
       <c r="L33" s="6">
-        <v>5.0548898042616699</v>
+        <v>7.3398388936162098</v>
       </c>
       <c r="M33" s="6">
-        <v>3.9062313992042901</v>
+        <v>1.66833985754022</v>
       </c>
       <c r="N33" s="6">
-        <v>5.9321846435531</v>
+        <v>6.3665970159872396</v>
       </c>
       <c r="O33" s="6">
-        <v>5.2752270383335098</v>
+        <v>4.0467872157273002</v>
       </c>
       <c r="P33" s="6">
-        <v>3.5595568336954599</v>
+        <v>3.5573464087827298</v>
       </c>
       <c r="Q33" s="6">
-        <v>6.4077706413924203</v>
+        <v>5.0880276810884002</v>
       </c>
       <c r="R33" s="6">
-        <v>5.9714486148675396</v>
+        <v>3.0699612631349198</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -2922,55 +2893,55 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="2">
-        <v>2019</v>
+      <c r="D34">
+        <v>2015</v>
       </c>
       <c r="E34" s="6">
-        <v>3.0540026240428699</v>
+        <v>5.5193495322298096</v>
       </c>
       <c r="F34" s="6">
-        <v>2.8010305926200201</v>
+        <v>6.34962053616273</v>
       </c>
       <c r="G34" s="6">
-        <v>3.8751927464095002</v>
+        <v>6.6675649858743196</v>
       </c>
       <c r="H34" s="6">
-        <v>4.55274650934353</v>
+        <v>6.5882252122597604</v>
       </c>
       <c r="I34" s="6">
-        <v>1.6521317255533201</v>
+        <v>6.1768562136093097</v>
       </c>
       <c r="J34" s="6">
-        <v>6.4707650111696804</v>
+        <v>4.8060802155567401</v>
       </c>
       <c r="K34" s="6">
-        <v>4.8785324869259901</v>
+        <v>3.57488493467525</v>
       </c>
       <c r="L34" s="6">
-        <v>6.0549594713996804</v>
+        <v>5.0548898042616699</v>
       </c>
       <c r="M34" s="6">
-        <v>6.0084609371775297</v>
+        <v>3.9062313992042901</v>
       </c>
       <c r="N34" s="6">
-        <v>8.4528239875200999</v>
+        <v>5.9321846435531</v>
       </c>
       <c r="O34" s="6">
-        <v>3.9999999065615</v>
+        <v>5.2752270383335098</v>
       </c>
       <c r="P34" s="6">
-        <v>4.00000015025672</v>
+        <v>3.5595568336954599</v>
       </c>
       <c r="Q34" s="6">
-        <v>2.9999999931350101</v>
+        <v>6.4077706413924203</v>
       </c>
       <c r="R34" s="6">
-        <v>4.02392184729253</v>
+        <v>5.9714486148675396</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -2979,184 +2950,240 @@
         <v>58</v>
       </c>
       <c r="D35" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E35" s="6">
-        <v>3.8537520828827798</v>
+        <v>3.0540026240428699</v>
       </c>
       <c r="F35" s="6">
-        <v>4.1404026675598598</v>
+        <v>2.8010305926200201</v>
       </c>
       <c r="G35" s="6">
-        <v>4.0292056310676001</v>
+        <v>3.8751927464095002</v>
       </c>
       <c r="H35" s="6">
-        <v>3.4688946902629199</v>
+        <v>4.55274650934353</v>
       </c>
       <c r="I35" s="6">
-        <v>4.8085515233820502</v>
+        <v>1.6521317255533201</v>
       </c>
       <c r="J35" s="6">
-        <v>3.3801867079949202</v>
+        <v>6.4707650111696804</v>
       </c>
       <c r="K35" s="6">
-        <v>2.5304544030684499</v>
+        <v>4.8785324869259901</v>
       </c>
       <c r="L35" s="6">
-        <v>7.94571321092352</v>
+        <v>6.0549594713996804</v>
       </c>
       <c r="M35" s="6">
-        <v>1.9295582196199099</v>
+        <v>6.0084609371775297</v>
       </c>
       <c r="N35" s="6">
-        <v>6.5801446567686597</v>
+        <v>8.4528239875200999</v>
       </c>
       <c r="O35" s="6">
-        <v>4.6978613059405498</v>
+        <v>3.9999999065615</v>
       </c>
       <c r="P35" s="6">
-        <v>4.23569021911237</v>
+        <v>4.00000015025672</v>
       </c>
       <c r="Q35" s="6">
-        <v>5.7972953423011298</v>
+        <v>2.9999999931350101</v>
       </c>
       <c r="R35" s="6">
-        <v>3.6781286176427201</v>
+        <v>4.02392184729253</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2">
         <v>2020</v>
       </c>
       <c r="E36" s="6">
-        <v>3.9633164428443899</v>
+        <v>3.8537520828827798</v>
       </c>
       <c r="F36" s="6">
-        <v>4.4366582777298698</v>
+        <v>4.1404026675598598</v>
       </c>
       <c r="G36" s="6">
-        <v>4.4136399648454896</v>
+        <v>4.0292056310676001</v>
       </c>
       <c r="H36" s="6">
-        <v>3.9479236763986698</v>
+        <v>3.4688946902629199</v>
       </c>
       <c r="I36" s="6">
-        <v>4.94103510558603</v>
+        <v>4.8085515233820502</v>
       </c>
       <c r="J36" s="6">
-        <v>3.19185054843736</v>
+        <v>3.3801867079949202</v>
       </c>
       <c r="K36" s="6">
-        <v>2.1497530783022398</v>
+        <v>2.5304544030684499</v>
       </c>
       <c r="L36" s="6">
-        <v>7.3360490784061696</v>
+        <v>7.94571321092352</v>
       </c>
       <c r="M36" s="6">
-        <v>1.57177107485613</v>
+        <v>1.9295582196199099</v>
       </c>
       <c r="N36" s="6">
-        <v>6.1644775787826598</v>
+        <v>6.5801446567686597</v>
       </c>
       <c r="O36" s="6">
-        <v>4.5688548430085998</v>
+        <v>4.6978613059405498</v>
       </c>
       <c r="P36" s="6">
-        <v>3.7989202978553398</v>
+        <v>4.23569021911237</v>
       </c>
       <c r="Q36" s="6">
-        <v>5.7779469181436296</v>
+        <v>5.7972953423011298</v>
       </c>
       <c r="R36" s="6">
-        <v>3.9240405740315198</v>
+        <v>3.6781286176427201</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3.9633164428443899</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4.4366582777298698</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4.4136399648454896</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3.9479236763986698</v>
+      </c>
+      <c r="I37" s="6">
+        <v>4.94103510558603</v>
+      </c>
+      <c r="J37" s="6">
+        <v>3.19185054843736</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2.1497530783022398</v>
+      </c>
+      <c r="L37" s="6">
+        <v>7.3360490784061696</v>
+      </c>
+      <c r="M37" s="6">
+        <v>1.57177107485613</v>
+      </c>
+      <c r="N37" s="6">
+        <v>6.1644775787826598</v>
+      </c>
+      <c r="O37" s="6">
+        <v>4.5688548430085998</v>
+      </c>
+      <c r="P37" s="6">
+        <v>3.7989202978553398</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>5.7779469181436296</v>
+      </c>
+      <c r="R37" s="6">
+        <v>3.9240405740315198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>2019</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>2.8841869986832802</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>3.1469145888717902</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>3.0030435777665301</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>2.4748817821308098</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>3.91228472154534</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>3.0229663236601101</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>2.0336783507443399</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <v>7.46538872374372</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M38" s="6">
         <v>1.76639985061896</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <v>6.3161245168533604</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O38" s="6">
         <v>3.86052551535751</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P38" s="6">
         <v>3.6478715703339</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q38" s="6">
         <v>4.8559659848985302</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R38" s="6">
         <v>2.67768469338279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:R35">
-    <sortCondition ref="B5:B35"/>
-    <sortCondition ref="C5:C35"/>
-    <sortCondition ref="D5:D35"/>
-    <sortCondition ref="A5:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:R36">
+    <sortCondition ref="B6:B36"/>
+    <sortCondition ref="C6:C36"/>
+    <sortCondition ref="D6:D36"/>
+    <sortCondition ref="A6:A36"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
